--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medication.xlsx
@@ -503,7 +503,7 @@
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode